--- a/product-definitions/spreadsheet/snr-winds.xlsx
+++ b/product-definitions/spreadsheet/snr-winds.xlsx
@@ -12,7 +12,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="89">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
@@ -26,9 +44,6 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
@@ -38,18 +53,6 @@
     <t>time_minutes_since_start_of_day</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -83,15 +86,6 @@
     <t xml:space="preserve"> &lt;derived from file&gt; </t>
   </si>
   <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>time, index</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Geometric height above geoid (WGS84).</t>
   </si>
   <si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>wind_speed</t>
+  </si>
+  <si>
+    <t>time, altitude</t>
   </si>
   <si>
     <t>m s-1</t>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Spectral Width of beam 1 (back panel)</t>
+  </si>
+  <si>
+    <t>time: standard_deviation</t>
   </si>
   <si>
     <t>spectral_width_of_beam_2</t>
@@ -306,6 +306,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <name val="Arial"/>
     </font>
@@ -314,10 +318,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -344,23 +344,23 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -368,25 +368,25 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -395,7 +395,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -410,13 +410,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -452,72 +452,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -1516,7 +1493,6 @@
     <row r="997" ht="12.0" customHeight="1"/>
     <row r="998" ht="12.0" customHeight="1"/>
     <row r="999" ht="12.0" customHeight="1"/>
-    <row r="1000" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1541,375 +1517,375 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9">
         <v>1.0</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="C10" s="8"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12">
         <v>-1.0E20</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="I23" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="12">
         <v>-1.0E20</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="1"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="18">
         <v>-1.0E20</v>
@@ -1917,85 +1893,85 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1"/>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="18">
         <v>-1.0E20</v>
@@ -2003,85 +1979,85 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="B54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1"/>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="18">
         <v>-1.0E20</v>
@@ -2089,85 +2065,85 @@
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="B66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="B67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="B69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1"/>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="B76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77" s="18">
         <v>-1.0E20</v>
@@ -2175,85 +2151,85 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="B78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="B81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1"/>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="B84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="B88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="18">
         <v>-1.0E20</v>
@@ -2261,86 +2237,86 @@
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="B90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="B91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="B92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="12.0" customHeight="1">
       <c r="B93" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="12.0" customHeight="1"/>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="12.0" customHeight="1">
       <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="B98" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
       <c r="B100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="B101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" s="18">
         <v>-1.0E20</v>
@@ -2348,86 +2324,86 @@
     </row>
     <row r="102" ht="12.0" customHeight="1">
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="B103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="B104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" ht="12.0" customHeight="1">
       <c r="B105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="12.0" customHeight="1"/>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1">
       <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="12.0" customHeight="1">
       <c r="B110" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" ht="12.0" customHeight="1">
       <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="B112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="B113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" s="18">
         <v>-1.0E20</v>
@@ -2435,86 +2411,86 @@
     </row>
     <row r="114" ht="12.0" customHeight="1">
       <c r="B114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
       <c r="B115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="B116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="12.0" customHeight="1">
       <c r="B117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1"/>
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" ht="12.0" customHeight="1">
       <c r="B121" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="B122" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C123" s="6"/>
       <c r="D123" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="B125" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C125" s="18">
         <v>-1.0E20</v>
@@ -2522,82 +2498,82 @@
     </row>
     <row r="126" ht="12.0" customHeight="1">
       <c r="B126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
       <c r="B127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
       <c r="B128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
       <c r="B129" t="s">
-        <v>32</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130" ht="12.0" customHeight="1"/>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="B132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" ht="12.0" customHeight="1">
       <c r="B133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="134" ht="12.0" customHeight="1">
       <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="135" ht="12.0" customHeight="1">
       <c r="B135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" ht="18.0" customHeight="1">
       <c r="A136" s="21"/>
       <c r="B136" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
@@ -2625,7 +2601,7 @@
     </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="B137" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C137" s="18">
         <v>-1.0E20</v>
@@ -2633,88 +2609,88 @@
     </row>
     <row r="138" ht="12.0" customHeight="1">
       <c r="B138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="B139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="B140" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="B141" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
-      <c r="C142" s="3"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" ht="12.0" customHeight="1">
       <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="146" ht="12.0" customHeight="1">
       <c r="B146" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" ht="12.0" customHeight="1">
       <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C147" s="6"/>
       <c r="D147" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="B148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="B149" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="18">
         <v>-1.0E20</v>
@@ -2722,34 +2698,34 @@
     </row>
     <row r="150" ht="12.0" customHeight="1">
       <c r="B150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
       <c r="B151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" ht="12.0" customHeight="1">
       <c r="B152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
       <c r="B153" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154" ht="12.0" customHeight="1">
@@ -2762,40 +2738,40 @@
     </row>
     <row r="156" ht="12.0" customHeight="1">
       <c r="B156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="B157" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="158" ht="12.0" customHeight="1">
       <c r="B158" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" ht="12.0" customHeight="1">
       <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C159" s="6"/>
       <c r="D159" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="B160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>63</v>
@@ -2803,7 +2779,7 @@
     </row>
     <row r="161" ht="12.0" customHeight="1">
       <c r="B161" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C161" s="18">
         <v>-1.0E20</v>
@@ -2811,34 +2787,34 @@
     </row>
     <row r="162" ht="12.0" customHeight="1">
       <c r="B162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" ht="12.0" customHeight="1">
       <c r="B163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" ht="12.0" customHeight="1">
       <c r="B164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" ht="12.0" customHeight="1">
       <c r="B165" t="s">
-        <v>32</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="166" ht="12.0" customHeight="1">
@@ -2851,40 +2827,40 @@
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="B168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="B169" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="170" ht="12.0" customHeight="1">
       <c r="B170" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" ht="12.0" customHeight="1">
       <c r="B171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C171" s="6"/>
       <c r="D171" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="172" ht="12.0" customHeight="1">
       <c r="B172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C172" s="20" t="s">
         <v>65</v>
@@ -2892,7 +2868,7 @@
     </row>
     <row r="173" ht="12.0" customHeight="1">
       <c r="B173" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C173" s="18">
         <v>-1.0E20</v>
@@ -2900,34 +2876,34 @@
     </row>
     <row r="174" ht="12.0" customHeight="1">
       <c r="B174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" ht="12.0" customHeight="1">
       <c r="B175" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" ht="12.0" customHeight="1">
       <c r="B176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" ht="12.0" customHeight="1">
       <c r="B177" t="s">
-        <v>32</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178" ht="12.0" customHeight="1"/>
@@ -2935,44 +2911,44 @@
       <c r="A179" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="6"/>
     </row>
     <row r="180" ht="12.0" customHeight="1">
       <c r="B180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" ht="12.0" customHeight="1">
       <c r="B181" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="182" ht="12.0" customHeight="1">
       <c r="B182" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" ht="12.0" customHeight="1">
       <c r="B183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C183" s="6"/>
       <c r="D183" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="184" ht="12.0" customHeight="1">
       <c r="B184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C184" s="20" t="s">
         <v>67</v>
@@ -2980,7 +2956,7 @@
     </row>
     <row r="185" ht="12.0" customHeight="1">
       <c r="B185" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C185" s="18">
         <v>-1.0E20</v>
@@ -2988,23 +2964,23 @@
     </row>
     <row r="186" ht="12.0" customHeight="1">
       <c r="B186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" ht="12.0" customHeight="1">
       <c r="B187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" ht="12.0" customHeight="1">
       <c r="B188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C188" s="17" t="s">
         <v>68</v>
@@ -3012,10 +2988,10 @@
     </row>
     <row r="189" ht="12.0" customHeight="1">
       <c r="B189" t="s">
-        <v>32</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190" ht="12.0" customHeight="1"/>
@@ -3023,44 +2999,44 @@
       <c r="A191" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="6"/>
     </row>
     <row r="192" ht="12.0" customHeight="1">
       <c r="B192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" ht="12.0" customHeight="1">
       <c r="B193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="194" ht="12.0" customHeight="1">
       <c r="B194" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" ht="12.0" customHeight="1">
       <c r="B195" t="s">
-        <v>16</v>
-      </c>
-      <c r="C195" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C195" s="6"/>
       <c r="D195" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="196" ht="12.0" customHeight="1">
       <c r="B196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C196" s="20" t="s">
         <v>70</v>
@@ -3068,7 +3044,7 @@
     </row>
     <row r="197" ht="12.0" customHeight="1">
       <c r="B197" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C197" s="18">
         <v>-1.0E20</v>
@@ -3076,23 +3052,23 @@
     </row>
     <row r="198" ht="12.0" customHeight="1">
       <c r="B198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199" ht="12.0" customHeight="1">
       <c r="B199" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" ht="12.0" customHeight="1">
       <c r="B200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>68</v>
@@ -3100,10 +3076,10 @@
     </row>
     <row r="201" ht="12.0" customHeight="1">
       <c r="B201" t="s">
-        <v>32</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="202" ht="12.0" customHeight="1"/>
@@ -3111,44 +3087,44 @@
       <c r="A203" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="6"/>
     </row>
     <row r="204" ht="12.0" customHeight="1">
       <c r="B204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" ht="12.0" customHeight="1">
       <c r="B205" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="206" ht="12.0" customHeight="1">
       <c r="B206" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" ht="12.0" customHeight="1">
       <c r="B207" t="s">
-        <v>16</v>
-      </c>
-      <c r="C207" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C207" s="6"/>
       <c r="D207" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="208" ht="12.0" customHeight="1">
       <c r="B208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C208" s="20" t="s">
         <v>72</v>
@@ -3156,7 +3132,7 @@
     </row>
     <row r="209" ht="12.0" customHeight="1">
       <c r="B209" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C209" s="18">
         <v>-1.0E20</v>
@@ -3164,23 +3140,23 @@
     </row>
     <row r="210" ht="12.0" customHeight="1">
       <c r="B210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211" ht="12.0" customHeight="1">
       <c r="B211" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" ht="12.0" customHeight="1">
       <c r="B212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>68</v>
@@ -3188,10 +3164,10 @@
     </row>
     <row r="213" ht="12.0" customHeight="1">
       <c r="B213" t="s">
-        <v>32</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="214" ht="12.0" customHeight="1"/>
@@ -3199,11 +3175,11 @@
       <c r="A215" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="6"/>
     </row>
     <row r="216" ht="12.0" customHeight="1">
       <c r="B216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>74</v>
@@ -3211,15 +3187,15 @@
     </row>
     <row r="217" ht="12.0" customHeight="1">
       <c r="B217" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="218" ht="12.0" customHeight="1">
       <c r="B218" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C218" s="23">
         <v>1.0</v>
@@ -3227,15 +3203,15 @@
     </row>
     <row r="219" ht="12.0" customHeight="1">
       <c r="B219" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C219" s="23"/>
     </row>
     <row r="220" ht="12.0" customHeight="1">
       <c r="B220" t="s">
-        <v>17</v>
-      </c>
-      <c r="C220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3260,11 +3236,11 @@
       <c r="A224" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="6"/>
     </row>
     <row r="225" ht="12.0" customHeight="1">
       <c r="B225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>74</v>
@@ -3272,15 +3248,15 @@
     </row>
     <row r="226" ht="12.0" customHeight="1">
       <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="227" ht="12.0" customHeight="1">
       <c r="B227" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C227" s="23">
         <v>1.0</v>
@@ -3288,13 +3264,13 @@
     </row>
     <row r="228" ht="12.0" customHeight="1">
       <c r="B228" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C228" s="23"/>
     </row>
     <row r="229" ht="12.0" customHeight="1">
       <c r="B229" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>81</v>
@@ -3321,11 +3297,11 @@
       <c r="A233" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="6"/>
     </row>
     <row r="234" ht="12.0" customHeight="1">
       <c r="B234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C234" s="17" t="s">
         <v>74</v>
@@ -3333,15 +3309,15 @@
     </row>
     <row r="235" ht="12.0" customHeight="1">
       <c r="B235" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="236" ht="12.0" customHeight="1">
       <c r="B236" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C236" s="23">
         <v>1.0</v>
@@ -3349,13 +3325,13 @@
     </row>
     <row r="237" ht="12.0" customHeight="1">
       <c r="B237" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C237" s="23"/>
     </row>
     <row r="238" ht="12.0" customHeight="1">
       <c r="B238" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C238" s="17" t="s">
         <v>83</v>
@@ -3382,11 +3358,11 @@
       <c r="A242" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="6"/>
     </row>
     <row r="243" ht="12.0" customHeight="1">
       <c r="B243" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C243" s="17" t="s">
         <v>74</v>
@@ -3394,15 +3370,15 @@
     </row>
     <row r="244" ht="12.0" customHeight="1">
       <c r="B244" t="s">
-        <v>14</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="245" ht="12.0" customHeight="1">
       <c r="B245" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C245" s="23">
         <v>1.0</v>
@@ -3410,13 +3386,13 @@
     </row>
     <row r="246" ht="12.0" customHeight="1">
       <c r="B246" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C246" s="23"/>
     </row>
     <row r="247" ht="12.0" customHeight="1">
       <c r="B247" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>85</v>
@@ -3446,7 +3422,7 @@
     </row>
     <row r="252" ht="12.0" customHeight="1">
       <c r="B252" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C252" s="17" t="s">
         <v>74</v>
@@ -3454,15 +3430,15 @@
     </row>
     <row r="253" ht="12.0" customHeight="1">
       <c r="B253" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" ht="12.0" customHeight="1">
       <c r="B254" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C254" s="23">
         <v>1.0</v>
@@ -3470,13 +3446,13 @@
     </row>
     <row r="255" ht="12.0" customHeight="1">
       <c r="B255" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C255" s="23"/>
     </row>
     <row r="256" ht="12.0" customHeight="1">
       <c r="B256" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>87</v>
